--- a/CISC 4900 timelog CRISTIAN.xlsx
+++ b/CISC 4900 timelog CRISTIAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6901022-CBAF-4893-8189-E6FECFD33AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7583CB-919D-4DEC-9730-7C9F2ED3D25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50D130F0-7AAA-4B35-BDEE-177E72B35B45}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +93,51 @@
   </si>
   <si>
     <t>Watcing Experienced Dev coding on stream</t>
+  </si>
+  <si>
+    <t>Learning Mongoose Schema</t>
+  </si>
+  <si>
+    <t>Building/Testing Schemas</t>
+  </si>
+  <si>
+    <t>Learning User Authenication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Learning BootStrap</t>
+  </si>
+  <si>
+    <t>Updating Navbar</t>
+  </si>
+  <si>
+    <t>Developing Login/signup functionality</t>
+  </si>
+  <si>
+    <t>debugging Login/signup functionality</t>
+  </si>
+  <si>
+    <t>debug login/Adding  Programs to Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing Dashboard/custom workout </t>
+  </si>
+  <si>
+    <t>Developing Dashboard/custom workout</t>
+  </si>
+  <si>
+    <t>Developing Final Slides</t>
+  </si>
+  <si>
+    <t>Developing Exercises Pages</t>
+  </si>
+  <si>
+    <t>Developing Exercises Pages/ functionality</t>
+  </si>
+  <si>
+    <t>Final Slides</t>
   </si>
 </sst>
 </file>
@@ -157,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -303,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9F3BA2-7FE2-4623-BFE3-2CC6C1B814F0}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1306,512 @@
         <v>0.20833333333333337</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3">
+        <f>C45-B45</f>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3">
+        <f>C46-B46</f>
+        <v>8.4722222222222254E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="3">
+        <f>C47-B47</f>
+        <v>0.16944444444444462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="3">
+        <f>C48-B48</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45248</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="3">
+        <f>C49-B49</f>
+        <v>9.722222222222221E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" ref="E50:E52" si="1">C50-B50</f>
+        <v>0.13263888888888886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9305555555555602E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="3">
+        <f>C52-B52</f>
+        <v>0.12083333333333335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" ref="E53:E56" si="2">C53-B53</f>
+        <v>0.11666666666666681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="2"/>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13124999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="3">
+        <f>C56-B56</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" ref="E57:E78" si="3">C57-B57</f>
+        <v>0.17986111111111108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7083333333333348E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18055555555555558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1159722222222222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13402777777777786</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45269</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12986111111111109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="3"/>
+        <v>7.5000000000000067E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="3"/>
+        <v>9.5138888888888884E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16597222222222208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16319444444444442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.95208333333333339</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="3">
+        <f>C70-B70</f>
+        <v>0.18402777777777779</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
